--- a/TestCaseResult.xlsx
+++ b/TestCaseResult.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\171025816211386-RestAssuredzip-9972\epam.rest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="478" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7155" tabRatio="478"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Test id</t>
   </si>
@@ -32,7 +36,7 @@
     <t>Steps</t>
   </si>
   <si>
-    <t>Expected resuts </t>
+    <t>Expected resuts</t>
   </si>
   <si>
     <t>testStatusForALLPlanets</t>
@@ -84,16 +88,40 @@
   </si>
   <si>
     <t>https://swapi.co/api/planets/1/</t>
+  </si>
+  <si>
+    <t>testPlanetNotFound</t>
+  </si>
+  <si>
+    <t>Negative Test Case to validate error code 404 for invalid id</t>
+  </si>
+  <si>
+    <t>HTTP 404 NOT FOUND
+{
+    "detail": "Not found"
+}</t>
+  </si>
+  <si>
+    <t>testPlanetWrongCount</t>
+  </si>
+  <si>
+    <t>Negative Test Case to validate count it shouldn’t be 50</t>
+  </si>
+  <si>
+    <t>testPlanetSecondName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To validate the content of the response by checking "name" of second planet </t>
+  </si>
+  <si>
+    <t>Yavin IV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -102,22 +130,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -140,7 +153,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -148,53 +161,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -253,34 +235,308 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.662962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.3925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.337037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.4925925925926"/>
+    <col min="1" max="1" width="10"/>
+    <col min="2" max="2" width="44.5"/>
+    <col min="3" max="3" width="36"/>
+    <col min="4" max="4" width="25.625"/>
+    <col min="5" max="5" width="68.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.375"/>
+    <col min="7" max="1025" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -300,133 +556,188 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>61</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>